--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N2">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O2">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P2">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q2">
-        <v>9.318403981171111</v>
+        <v>11.33748631198111</v>
       </c>
       <c r="R2">
-        <v>83.86563583053999</v>
+        <v>102.03737680783</v>
       </c>
       <c r="S2">
-        <v>0.01176534653134675</v>
+        <v>0.01171908900732481</v>
       </c>
       <c r="T2">
-        <v>0.01176534653134675</v>
+        <v>0.01171908900732481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N3">
         <v>113.146496</v>
       </c>
       <c r="O3">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P3">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q3">
-        <v>37.91325359800889</v>
+        <v>27.61333948963555</v>
       </c>
       <c r="R3">
-        <v>341.2192823820799</v>
+        <v>248.5200554067199</v>
       </c>
       <c r="S3">
-        <v>0.04786898782374358</v>
+        <v>0.02854276286327615</v>
       </c>
       <c r="T3">
-        <v>0.04786898782374356</v>
+        <v>0.02854276286327615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N4">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O4">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P4">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q4">
-        <v>9.940787993003333</v>
+        <v>10.48391801094889</v>
       </c>
       <c r="R4">
-        <v>89.46709193702999</v>
+        <v>94.35526209853998</v>
       </c>
       <c r="S4">
-        <v>0.01255116388693382</v>
+        <v>0.01083679088423409</v>
       </c>
       <c r="T4">
-        <v>0.01255116388693382</v>
+        <v>0.01083679088423409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N5">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O5">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P5">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q5">
-        <v>0.05009094021888889</v>
+        <v>0.03537106218111111</v>
       </c>
       <c r="R5">
-        <v>0.45081846197</v>
+        <v>0.31833955963</v>
       </c>
       <c r="S5">
-        <v>6.324444303413163E-05</v>
+        <v>3.656159880396178E-05</v>
       </c>
       <c r="T5">
-        <v>6.324444303413162E-05</v>
+        <v>3.656159880396178E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N6">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O6">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P6">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q6">
-        <v>95.10665181224044</v>
+        <v>158.8759855194991</v>
       </c>
       <c r="R6">
-        <v>855.959866310164</v>
+        <v>1429.883869675492</v>
       </c>
       <c r="S6">
-        <v>0.1200809407134673</v>
+        <v>0.1642235116493043</v>
       </c>
       <c r="T6">
-        <v>0.1200809407134673</v>
+        <v>0.1642235116493043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N7">
         <v>113.146496</v>
       </c>
       <c r="O7">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P7">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q7">
-        <v>386.9549566965476</v>
+        <v>386.9549566965475</v>
       </c>
       <c r="R7">
         <v>3482.594610268928</v>
       </c>
       <c r="S7">
-        <v>0.488566407590433</v>
+        <v>0.3999792771136723</v>
       </c>
       <c r="T7">
-        <v>0.4885664075904328</v>
+        <v>0.3999792771136723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N8">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O8">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P8">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q8">
-        <v>101.4589047974553</v>
+        <v>146.9146475912329</v>
       </c>
       <c r="R8">
-        <v>913.130143177098</v>
+        <v>1322.231828321096</v>
       </c>
       <c r="S8">
-        <v>0.1281012473858169</v>
+        <v>0.1518595731208927</v>
       </c>
       <c r="T8">
-        <v>0.1281012473858169</v>
+        <v>0.1518595731208927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N9">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O9">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P9">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q9">
-        <v>0.5112443740335556</v>
+        <v>0.4956665179791112</v>
       </c>
       <c r="R9">
-        <v>4.601199366302001</v>
+        <v>4.460998661812</v>
       </c>
       <c r="S9">
-        <v>0.000645493287784062</v>
+        <v>0.0005123499056408516</v>
       </c>
       <c r="T9">
-        <v>0.000645493287784062</v>
+        <v>0.0005123499056408515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N10">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O10">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P10">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q10">
-        <v>20.99319404280866</v>
+        <v>39.76607922574378</v>
       </c>
       <c r="R10">
-        <v>188.938746385278</v>
+        <v>357.894713031694</v>
       </c>
       <c r="S10">
-        <v>0.02650584834189673</v>
+        <v>0.04110454549579861</v>
       </c>
       <c r="T10">
-        <v>0.02650584834189674</v>
+        <v>0.04110454549579861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N11">
         <v>113.146496</v>
       </c>
       <c r="O11">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P11">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q11">
-        <v>85.41379952891734</v>
+        <v>96.85341314783288</v>
       </c>
       <c r="R11">
-        <v>768.724195760256</v>
+        <v>871.6807183304959</v>
       </c>
       <c r="S11">
-        <v>0.1078428185821579</v>
+        <v>0.1001133530051708</v>
       </c>
       <c r="T11">
-        <v>0.1078428185821579</v>
+        <v>0.1001133530051708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N12">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O12">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P12">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q12">
-        <v>22.395347067719</v>
+        <v>36.77220000513022</v>
       </c>
       <c r="R12">
-        <v>201.558123609471</v>
+        <v>330.949800046172</v>
       </c>
       <c r="S12">
-        <v>0.0282761961677025</v>
+        <v>0.03800989681459375</v>
       </c>
       <c r="T12">
-        <v>0.02827619616770251</v>
+        <v>0.03800989681459375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N13">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O13">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P13">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q13">
-        <v>0.1128485983143333</v>
+        <v>0.1240635201037778</v>
       </c>
       <c r="R13">
-        <v>1.015637384829</v>
+        <v>1.116571680934</v>
       </c>
       <c r="S13">
-        <v>0.0001424817884508611</v>
+        <v>0.0001282393111356398</v>
       </c>
       <c r="T13">
-        <v>0.0001424817884508611</v>
+        <v>0.0001282393111356398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N14">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O14">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P14">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q14">
-        <v>3.558444219083333</v>
+        <v>11.73631876845866</v>
       </c>
       <c r="R14">
-        <v>32.02599797175001</v>
+        <v>105.626868916128</v>
       </c>
       <c r="S14">
-        <v>0.004492864811890388</v>
+        <v>0.01213134556295401</v>
       </c>
       <c r="T14">
-        <v>0.004492864811890389</v>
+        <v>0.01213134556295401</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N15">
         <v>113.146496</v>
       </c>
       <c r="O15">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P15">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q15">
-        <v>14.47803705066667</v>
+        <v>28.58472730146133</v>
       </c>
       <c r="R15">
-        <v>130.302333456</v>
+        <v>257.262545713152</v>
       </c>
       <c r="S15">
-        <v>0.0182798602999999</v>
+        <v>0.02954684612425321</v>
       </c>
       <c r="T15">
-        <v>0.0182798602999999</v>
+        <v>0.02954684612425321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N16">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O16">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P16">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q16">
-        <v>3.796115690875</v>
+        <v>10.85272346382933</v>
       </c>
       <c r="R16">
-        <v>34.16504121787501</v>
+        <v>97.67451117446399</v>
       </c>
       <c r="S16">
-        <v>0.004792947018231128</v>
+        <v>0.01121800977259784</v>
       </c>
       <c r="T16">
-        <v>0.004792947018231129</v>
+        <v>0.01121800977259784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N17">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O17">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P17">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q17">
-        <v>0.01912836329166667</v>
+        <v>0.03661535277866666</v>
       </c>
       <c r="R17">
-        <v>0.172155269625</v>
+        <v>0.329538175008</v>
       </c>
       <c r="S17">
-        <v>2.415132711124068E-05</v>
+        <v>3.784777034697138E-05</v>
       </c>
       <c r="T17">
-        <v>2.415132711124068E-05</v>
+        <v>3.784777034697137E-05</v>
       </c>
     </row>
   </sheetData>
